--- a/users.xlsx
+++ b/users.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\coding\injae\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36721DFD-D2B0-4187-B6B2-5D48E30152D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="108">
   <si>
     <t>취성</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -386,13 +392,55 @@
   </si>
   <si>
     <t>seonewha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강명수 묵은김치찜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aa0312392258</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjk59258ii</t>
+  </si>
+  <si>
+    <t>비비오 파스타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>woghtosk119</t>
+  </si>
+  <si>
+    <t>1204az(119</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄폭탄부대찌개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도리도리 닭도리탕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜,탕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xjalsp345</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alsals741</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -570,7 +618,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -622,7 +670,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -816,18 +864,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1316,8 +1364,76 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
+    <row r="35" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/users.xlsx
+++ b/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\coding\injae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36721DFD-D2B0-4187-B6B2-5D48E30152D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AA233F-765A-4CAD-B665-9CFE6164B914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14460" yWindow="1830" windowWidth="15885" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="112">
   <si>
     <t>취성</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -435,6 +435,20 @@
   <si>
     <t>alsals741</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재용이네만족 본점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manjok100</t>
+  </si>
+  <si>
+    <t>sldrlal!12</t>
   </si>
 </sst>
 </file>
@@ -872,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1418,18 +1432,41 @@
         <v>107</v>
       </c>
       <c r="D38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
